--- a/ce-i4.0.xlsx
+++ b/ce-i4.0.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumey\Desktop\ce bölümler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71784DAD-A738-4D1A-85DD-C74D3EFF0D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA6C45-C36B-49C8-BE25-199B2835CA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="A" sheetId="1" r:id="rId1"/>
-    <sheet name="B" sheetId="3" r:id="rId2"/>
-    <sheet name="C" sheetId="2" r:id="rId3"/>
+    <sheet name="A(F-AHP)" sheetId="1" r:id="rId1"/>
+    <sheet name="B( F-EDAS)" sheetId="3" r:id="rId2"/>
+    <sheet name="C(F-MARCOS)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1225,12 +1225,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1339,98 +1347,98 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3288,22 +3296,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -3483,15 +3491,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3632,15 +3640,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -3781,15 +3789,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -3930,15 +3938,15 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -4079,26 +4087,26 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="D33" s="7" t="s">
+      <c r="B33" s="19"/>
+      <c r="D33" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="G33" s="7" t="s">
+      <c r="E33" s="19"/>
+      <c r="G33" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -4201,24 +4209,24 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="D41" s="7" t="s">
+      <c r="B41" s="19"/>
+      <c r="D41" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="G42" s="6" t="s">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="G42" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -4236,7 +4244,7 @@
       <c r="G43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4256,7 +4264,7 @@
       <c r="G44" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="7" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4276,7 +4284,7 @@
       <c r="G45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="7" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4296,7 +4304,7 @@
       <c r="G46" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="7" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4316,7 +4324,7 @@
       <c r="G47" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="8" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4342,22 +4350,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612995BE-9512-46A1-9D19-1B06759B7EE8}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4544,15 +4552,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -4739,15 +4747,15 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -4934,52 +4942,52 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="D31" s="7" t="s">
+      <c r="B31" s="19"/>
+      <c r="D31" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="G31" s="7" t="s">
+      <c r="E31" s="19"/>
+      <c r="G31" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="J31" s="7" t="s">
+      <c r="H31" s="19"/>
+      <c r="J31" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="N31" s="7" t="s">
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="N31" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="O31" s="7"/>
-      <c r="Q31" s="7" t="s">
+      <c r="O31" s="19"/>
+      <c r="Q31" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="R31" s="7"/>
+      <c r="R31" s="19"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="11" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="11" t="s">
+      <c r="G32" s="6"/>
+      <c r="H32" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="11" t="s">
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="11" t="s">
+      <c r="Q32" s="6"/>
+      <c r="R32" s="9" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5005,10 +5013,10 @@
       <c r="J33" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="L33" s="17"/>
+      <c r="L33" s="31"/>
       <c r="N33" s="1" t="s">
         <v>39</v>
       </c>
@@ -5044,10 +5052,10 @@
       <c r="J34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="L34" s="16"/>
+      <c r="L34" s="20"/>
       <c r="N34" s="1" t="s">
         <v>46</v>
       </c>
@@ -5083,10 +5091,10 @@
       <c r="J35" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="L35" s="16"/>
+      <c r="L35" s="20"/>
       <c r="N35" s="1" t="s">
         <v>52</v>
       </c>
@@ -5122,10 +5130,10 @@
       <c r="J36" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="L36" s="16"/>
+      <c r="L36" s="20"/>
       <c r="N36" s="1" t="s">
         <v>57</v>
       </c>
@@ -5161,10 +5169,10 @@
       <c r="J37" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="L37" s="16"/>
+      <c r="L37" s="20"/>
       <c r="N37" s="2" t="s">
         <v>64</v>
       </c>
@@ -5185,11 +5193,11 @@
       <c r="B38" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="18" t="s">
+      <c r="J38" s="11"/>
+      <c r="K38" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="L38" s="18"/>
+      <c r="L38" s="21"/>
     </row>
     <row r="39" spans="1:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -5198,72 +5206,72 @@
       <c r="B39" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="19">
+      <c r="J39" s="12"/>
+      <c r="K39" s="28">
         <v>2325</v>
       </c>
-      <c r="L39" s="19"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="42" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="D42" s="24" t="s">
+      <c r="B42" s="25"/>
+      <c r="D42" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="E42" s="24"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="D43" s="18" t="s">
+      <c r="B43" s="21"/>
+      <c r="D43" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="29"/>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="H44" s="18"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="14">
         <v>1403</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="20" t="s">
+      <c r="F46" s="10"/>
+      <c r="G46" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="H46" s="31" t="s">
+      <c r="H46" s="17" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5271,7 +5279,7 @@
       <c r="A47" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="15">
         <v>1170</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -5280,11 +5288,11 @@
       <c r="E47" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F47" s="12"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="7" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5292,7 +5300,7 @@
       <c r="A48" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="15">
         <v>1198</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -5301,11 +5309,11 @@
       <c r="E48" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F48" s="12"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="7" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5313,7 +5321,7 @@
       <c r="A49" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="15">
         <v>1226</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -5322,11 +5330,11 @@
       <c r="E49" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F49" s="12"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="7" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5334,7 +5342,7 @@
       <c r="A50" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="16">
         <v>1061</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -5343,35 +5351,35 @@
       <c r="E50" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F50" s="12"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="8" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="12"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="F52" s="12"/>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -5383,10 +5391,10 @@
       <c r="D53" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="F53" s="16"/>
+      <c r="F53" s="20"/>
     </row>
     <row r="54" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -5401,7 +5409,7 @@
       <c r="E54" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F54" s="12"/>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -5416,7 +5424,7 @@
       <c r="E55" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F55" s="12"/>
+      <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
@@ -5431,27 +5439,16 @@
       <c r="E56" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F56" s="12"/>
+      <c r="F56" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="F42:F44"/>
     <mergeCell ref="J31:L31"/>
@@ -5460,12 +5457,23 @@
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
